--- a/Food List.xlsx
+++ b/Food List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M.I.C.H.E.L.L.E\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Nott-Very-Smart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFAF76C-FA8F-4986-8CF5-33639BDC9089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC96AD7-9BDE-4D0D-8F99-C8124B973711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="684" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food data" sheetId="1" r:id="rId1"/>
@@ -201,9 +201,6 @@
     <t xml:space="preserve">Tteok </t>
   </si>
   <si>
-    <t xml:space="preserve">Kimchi </t>
-  </si>
-  <si>
     <t>Gimbap</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>is_beverage</t>
+  </si>
+  <si>
+    <t>Kimchi</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1432,7 +1432,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2">
         <v>4</v>
@@ -1449,7 +1449,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2">
         <v>4.5</v>
@@ -1466,7 +1466,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2">
         <v>5</v>
@@ -1483,7 +1483,7 @@
         <v>56</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2">
         <v>6</v>
@@ -1500,7 +1500,7 @@
         <v>56</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2">
         <v>6.5</v>
@@ -1517,7 +1517,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2">
         <v>7</v>
@@ -1534,7 +1534,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2">
         <v>7</v>
@@ -1551,7 +1551,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2">
         <v>7</v>
@@ -1568,7 +1568,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2">
         <v>7.5</v>
@@ -1585,7 +1585,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2">
         <v>8</v>
@@ -1602,7 +1602,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2">
         <v>8</v>
@@ -1619,7 +1619,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2">
         <v>8.5</v>
@@ -1636,7 +1636,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2">
         <v>9</v>
@@ -1653,7 +1653,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2">
         <v>10</v>
@@ -1667,10 +1667,10 @@
     </row>
     <row r="64" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C64" s="2">
         <v>1.5</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="65" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2">
         <v>1.5</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="66" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="2">
         <v>5</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="67" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2">
         <v>5</v>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="68" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="2">
         <v>1.5</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="2">
         <v>8</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="70" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" s="2">
         <v>6.5</v>
@@ -1786,10 +1786,10 @@
     </row>
     <row r="71" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="2">
         <v>9</v>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="72" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="2">
         <v>8</v>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="73" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" s="2">
         <v>7</v>
@@ -1837,10 +1837,10 @@
     </row>
     <row r="74" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" s="2">
         <v>7</v>
@@ -1854,10 +1854,10 @@
     </row>
     <row r="75" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="2">
         <v>6</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="76" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="2">
         <v>6</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="77" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="2">
         <v>7</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="78" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="2">
         <v>7</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="79" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" s="2">
         <v>7</v>
@@ -1939,10 +1939,10 @@
     </row>
     <row r="80" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" s="2">
         <v>6</v>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="81" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="2">
         <v>6</v>
@@ -1973,10 +1973,10 @@
     </row>
     <row r="82" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="2">
         <v>7</v>
@@ -1990,10 +1990,10 @@
     </row>
     <row r="83" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="2">
         <v>10</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="84" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="2">
         <v>9</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="85" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85" s="2">
         <v>8</v>
@@ -2041,10 +2041,10 @@
     </row>
     <row r="86" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86" s="2">
         <v>10</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="87" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" s="2">
         <v>9</v>
@@ -2075,10 +2075,10 @@
     </row>
     <row r="88" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2">
         <v>8</v>
